--- a/biology/Botanique/Opopanax_de_Chiron/Opopanax_de_Chiron.xlsx
+++ b/biology/Botanique/Opopanax_de_Chiron/Opopanax_de_Chiron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opopanax chironium est une espèce de la famille des Apiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vigoureuse qui peut atteindre 1 à 2 mètres de hauteur et qui se se reconnaît aisément à son port de férule, à la découpe de ses feuilles en segments larges et ovales, ainsi qu'à ses fleurs jaunes.
 Elle est généralement hérissée à la base et glabre au sommet. Ses feuilles basales ont une forme triangulaire, les feuilles supérieures sont simples ou réduites à la gaine. Les fleurs sont jaunes et se regroupent en grandes panicules lancéolées. Le fruit est plat, obovale ou elliptique, et est parcouru de côtes filiformes.
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 avril 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 avril 2023) :
 Opopanax chironius subsp. bulgaricus (Vel.) N.Andreev, 1982
 Opopanax chironius subsp. chironius</t>
         </is>
@@ -575,12 +591,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Opopanax chironium (L.) W.D.J.Koch[2].
-L'espèce a été initialement classée dans le genre Laserpitium sous le basionyme Laserpitium chironium L.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : opopanax de Chiron[3],[4], opopanax du centaure Chiron[3], Opoponax de Chiron[4].
-Opopanax chironium a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Opopanax chironium (L.) W.D.J.Koch.
+L'espèce a été initialement classée dans le genre Laserpitium sous le basionyme Laserpitium chironium L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : opopanax de Chiron opopanax du centaure Chiron, Opoponax de Chiron.
+Opopanax chironium a pour synonymes :
 Dorema chironia (L.) M.Hiroe
 Laserpitium chironium L.
 Malabaila opopanax (Crantz) Baill.
